--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrn-Dag1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Agrn-Dag1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H2">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I2">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J2">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="N2">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="O2">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="P2">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="Q2">
-        <v>348.8020968026256</v>
+        <v>309.64416590812</v>
       </c>
       <c r="R2">
-        <v>3139.21887122363</v>
+        <v>2786.79749317308</v>
       </c>
       <c r="S2">
-        <v>0.04161598087534462</v>
+        <v>0.0274556867570939</v>
       </c>
       <c r="T2">
-        <v>0.05637839264254121</v>
+        <v>0.03714723434373638</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H3">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I3">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J3">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>92.437557</v>
       </c>
       <c r="O3">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="P3">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="Q3">
-        <v>568.1423524391944</v>
+        <v>670.190806573919</v>
       </c>
       <c r="R3">
-        <v>5113.281171952749</v>
+        <v>6031.717259165271</v>
       </c>
       <c r="S3">
-        <v>0.06778572001234838</v>
+        <v>0.05942482009571456</v>
       </c>
       <c r="T3">
-        <v>0.09183130754170632</v>
+        <v>0.08040111097783874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H4">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I4">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J4">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="N4">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="O4">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="P4">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="Q4">
-        <v>110.1525668094099</v>
+        <v>117.620311766281</v>
       </c>
       <c r="R4">
-        <v>991.3731012846889</v>
+        <v>1058.582805896529</v>
       </c>
       <c r="S4">
-        <v>0.01314242992152797</v>
+        <v>0.0104292177656755</v>
       </c>
       <c r="T4">
-        <v>0.01780443615188129</v>
+        <v>0.01411061394278572</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H5">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I5">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J5">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="N5">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="O5">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="P5">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="Q5">
-        <v>1540.300785190278</v>
+        <v>2787.336407814057</v>
       </c>
       <c r="R5">
-        <v>9241.804711141667</v>
+        <v>16724.01844688434</v>
       </c>
       <c r="S5">
-        <v>0.1837750650192605</v>
+        <v>0.247148965571966</v>
       </c>
       <c r="T5">
-        <v>0.1659769885772054</v>
+        <v>0.2229265075547413</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>18.43868566666667</v>
+        <v>21.750601</v>
       </c>
       <c r="H6">
-        <v>55.316057</v>
+        <v>65.251803</v>
       </c>
       <c r="I6">
-        <v>0.3183853266762842</v>
+        <v>0.3612485837751334</v>
       </c>
       <c r="J6">
-        <v>0.3483374670709626</v>
+        <v>0.3773020033645041</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="N6">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="O6">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="P6">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="Q6">
-        <v>101.1316242338499</v>
+        <v>189.3557659187716</v>
       </c>
       <c r="R6">
-        <v>910.184618104649</v>
+        <v>1704.201893268945</v>
       </c>
       <c r="S6">
-        <v>0.01206613084780273</v>
+        <v>0.01678989358468341</v>
       </c>
       <c r="T6">
-        <v>0.01634634215762835</v>
+        <v>0.02271653654540191</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>50.535183</v>
       </c>
       <c r="I7">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J7">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="N7">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="O7">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="P7">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="Q7">
-        <v>318.6557167786634</v>
+        <v>239.80830980332</v>
       </c>
       <c r="R7">
-        <v>2867.901451007971</v>
+        <v>2158.27478822988</v>
       </c>
       <c r="S7">
-        <v>0.03801918146949701</v>
+        <v>0.02126344546617994</v>
       </c>
       <c r="T7">
-        <v>0.05150570275528991</v>
+        <v>0.02876920175684039</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>50.535183</v>
       </c>
       <c r="I8">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J8">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>92.437557</v>
       </c>
       <c r="O8">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="P8">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="Q8">
         <v>519.038762118659</v>
@@ -948,10 +948,10 @@
         <v>4671.348859067931</v>
       </c>
       <c r="S8">
-        <v>0.06192711395916718</v>
+        <v>0.04602239356173827</v>
       </c>
       <c r="T8">
-        <v>0.08389448170084518</v>
+        <v>0.06226777912433148</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>50.535183</v>
       </c>
       <c r="I9">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J9">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="N9">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="O9">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="P9">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="Q9">
-        <v>100.6322652685323</v>
+        <v>91.092716313541</v>
       </c>
       <c r="R9">
-        <v>905.6903874167909</v>
+        <v>819.8344468218691</v>
       </c>
       <c r="S9">
-        <v>0.01200655175312101</v>
+        <v>0.008077055408495955</v>
       </c>
       <c r="T9">
-        <v>0.01626562860666545</v>
+        <v>0.01092816481777566</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>50.535183</v>
       </c>
       <c r="I10">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J10">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="N10">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="O10">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="P10">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="Q10">
-        <v>1407.175172565796</v>
+        <v>2158.692158306277</v>
       </c>
       <c r="R10">
-        <v>8443.051035394774</v>
+        <v>12952.15294983766</v>
       </c>
       <c r="S10">
-        <v>0.1678916944782458</v>
+        <v>0.1914080167783257</v>
       </c>
       <c r="T10">
-        <v>0.1516318759223562</v>
+        <v>0.1726485911022219</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>50.535183</v>
       </c>
       <c r="I11">
-        <v>0.2908678170626081</v>
+        <v>0.2797740820980411</v>
       </c>
       <c r="J11">
-        <v>0.3182312442151755</v>
+        <v>0.2922068802649305</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="N11">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="O11">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="P11">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="Q11">
-        <v>92.39098762489233</v>
+        <v>146.6492547770717</v>
       </c>
       <c r="R11">
-        <v>831.518888624031</v>
+        <v>1319.843292993645</v>
       </c>
       <c r="S11">
-        <v>0.01102327540257716</v>
+        <v>0.01300317088330115</v>
       </c>
       <c r="T11">
-        <v>0.01493355523001872</v>
+        <v>0.01759314346376105</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H12">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I12">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J12">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="N12">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="O12">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="P12">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="Q12">
-        <v>90.18151761577113</v>
+        <v>127.24837702204</v>
       </c>
       <c r="R12">
-        <v>811.6336585419401</v>
+        <v>1145.23539319836</v>
       </c>
       <c r="S12">
-        <v>0.01075966098486835</v>
+        <v>0.01128292396409106</v>
       </c>
       <c r="T12">
-        <v>0.01457642902909269</v>
+        <v>0.01526566879513063</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H13">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I13">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J13">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>92.437557</v>
       </c>
       <c r="O13">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="P13">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="Q13">
-        <v>146.8911455361847</v>
+        <v>275.4151436424229</v>
       </c>
       <c r="R13">
-        <v>1322.020309825662</v>
+        <v>2478.736292781807</v>
       </c>
       <c r="S13">
-        <v>0.01752575216556241</v>
+        <v>0.02442065036113148</v>
       </c>
       <c r="T13">
-        <v>0.02374265164878833</v>
+        <v>0.03304086435051613</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H14">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I14">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J14">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="N14">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="O14">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="P14">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="Q14">
-        <v>28.47954681237578</v>
+        <v>48.336107780977</v>
       </c>
       <c r="R14">
-        <v>256.315921311382</v>
+        <v>435.024970028793</v>
       </c>
       <c r="S14">
-        <v>0.003397927610948326</v>
+        <v>0.004285890646121268</v>
       </c>
       <c r="T14">
-        <v>0.004603272420630896</v>
+        <v>0.005798761677740901</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H15">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I15">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J15">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="N15">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="O15">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="P15">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="Q15">
-        <v>398.2391839571577</v>
+        <v>1145.456860356369</v>
       </c>
       <c r="R15">
-        <v>2389.435103742946</v>
+        <v>6872.741162138213</v>
       </c>
       <c r="S15">
-        <v>0.04751437682082527</v>
+        <v>0.1015659528396882</v>
       </c>
       <c r="T15">
-        <v>0.04291274868011407</v>
+        <v>0.09161172534395386</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.767255333333334</v>
+        <v>8.938416999999999</v>
       </c>
       <c r="H16">
-        <v>14.301766</v>
+        <v>26.815251</v>
       </c>
       <c r="I16">
-        <v>0.082317371969549</v>
+        <v>0.1484552303838214</v>
       </c>
       <c r="J16">
-        <v>0.09006138928307222</v>
+        <v>0.1550523887136425</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="N16">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="O16">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="P16">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="Q16">
-        <v>26.14721481309578</v>
+        <v>77.81581746345165</v>
       </c>
       <c r="R16">
-        <v>235.324933317862</v>
+        <v>700.3423571710649</v>
       </c>
       <c r="S16">
-        <v>0.003119654387344642</v>
+        <v>0.006899812572789375</v>
       </c>
       <c r="T16">
-        <v>0.004226287504446238</v>
+        <v>0.009335368546300937</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H17">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I17">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J17">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="N17">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="O17">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="P17">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="Q17">
-        <v>282.6018304908717</v>
+        <v>109.40985668246</v>
       </c>
       <c r="R17">
-        <v>1695.61098294523</v>
+        <v>656.45914009476</v>
       </c>
       <c r="S17">
-        <v>0.03371755067086216</v>
+        <v>0.009701208948672735</v>
       </c>
       <c r="T17">
-        <v>0.03045210470725455</v>
+        <v>0.00875041748599463</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H18">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I18">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J18">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>92.437557</v>
       </c>
       <c r="O18">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="P18">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="Q18">
-        <v>460.3127970000715</v>
+        <v>236.8056245532895</v>
       </c>
       <c r="R18">
-        <v>2761.876782000429</v>
+        <v>1420.833747319737</v>
       </c>
       <c r="S18">
-        <v>0.0549204512594179</v>
+        <v>0.02099720183968305</v>
       </c>
       <c r="T18">
-        <v>0.04960156651493509</v>
+        <v>0.01893931808984061</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H19">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I19">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J19">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="N19">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="O19">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="P19">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="Q19">
-        <v>89.24635860552816</v>
+        <v>41.5600320308105</v>
       </c>
       <c r="R19">
-        <v>535.478151633169</v>
+        <v>249.360192184863</v>
       </c>
       <c r="S19">
-        <v>0.01064808608367818</v>
+        <v>0.003685066107111174</v>
       </c>
       <c r="T19">
-        <v>0.009616850153716598</v>
+        <v>0.003323901904527422</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H20">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I20">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J20">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="N20">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="O20">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="P20">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="Q20">
-        <v>1247.962169354777</v>
+        <v>984.8791305670185</v>
       </c>
       <c r="R20">
-        <v>4991.848677419107</v>
+        <v>3939.516522268074</v>
       </c>
       <c r="S20">
-        <v>0.1488958072474266</v>
+        <v>0.0873277648333627</v>
       </c>
       <c r="T20">
-        <v>0.08965045646466359</v>
+        <v>0.05251265792086193</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.9391485</v>
+        <v>7.6853705</v>
       </c>
       <c r="H21">
-        <v>29.878297</v>
+        <v>15.370741</v>
       </c>
       <c r="I21">
-        <v>0.2579579565172923</v>
+        <v>0.1276437928732263</v>
       </c>
       <c r="J21">
-        <v>0.1881502562153687</v>
+        <v>0.08887741190073968</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="N21">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="O21">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="P21">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="Q21">
-        <v>81.93752959338816</v>
+        <v>66.90708074673583</v>
       </c>
       <c r="R21">
-        <v>491.625177560329</v>
+        <v>401.442484480415</v>
       </c>
       <c r="S21">
-        <v>0.009776061255907442</v>
+        <v>0.005932551144396662</v>
       </c>
       <c r="T21">
-        <v>0.008829278374798853</v>
+        <v>0.005351116499515079</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H22">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I22">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J22">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.91686333333334</v>
+        <v>14.23612</v>
       </c>
       <c r="N22">
-        <v>56.75059</v>
+        <v>42.70836</v>
       </c>
       <c r="O22">
-        <v>0.1307094812119195</v>
+        <v>0.07600219901258977</v>
       </c>
       <c r="P22">
-        <v>0.1618499242031174</v>
+        <v>0.09845490883293605</v>
       </c>
       <c r="Q22">
-        <v>55.29329790501112</v>
+        <v>71.03913093018667</v>
       </c>
       <c r="R22">
-        <v>497.6396811451</v>
+        <v>639.35217837168</v>
       </c>
       <c r="S22">
-        <v>0.006597107211347342</v>
+        <v>0.006298933876552131</v>
       </c>
       <c r="T22">
-        <v>0.00893729506893908</v>
+        <v>0.008522386451234003</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H23">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I23">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J23">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>92.437557</v>
       </c>
       <c r="O23">
-        <v>0.2129046609025076</v>
+        <v>0.1644984167819043</v>
       </c>
       <c r="P23">
-        <v>0.2636274194501123</v>
+        <v>0.2130948424892534</v>
       </c>
       <c r="Q23">
-        <v>90.06386324463665</v>
+        <v>153.7564007278573</v>
       </c>
       <c r="R23">
-        <v>810.5747692017299</v>
+        <v>1383.807606550716</v>
       </c>
       <c r="S23">
-        <v>0.01074562350601167</v>
+        <v>0.01363335092363693</v>
       </c>
       <c r="T23">
-        <v>0.01455741204383734</v>
+        <v>0.01844576994672638</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H24">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I24">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J24">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.973992333333332</v>
+        <v>5.407681</v>
       </c>
       <c r="N24">
-        <v>17.921977</v>
+        <v>16.223043</v>
       </c>
       <c r="O24">
-        <v>0.04127837818006743</v>
+        <v>0.02886992014387351</v>
       </c>
       <c r="P24">
-        <v>0.05111260727016254</v>
+        <v>0.03739872520410058</v>
       </c>
       <c r="Q24">
-        <v>17.46176054394778</v>
+        <v>26.98466707134267</v>
       </c>
       <c r="R24">
-        <v>157.15584489553</v>
+        <v>242.862003642084</v>
       </c>
       <c r="S24">
-        <v>0.002083382810791944</v>
+        <v>0.002392690216469608</v>
       </c>
       <c r="T24">
-        <v>0.00282241993726831</v>
+        <v>0.003237282861270876</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H25">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I25">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J25">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>83.5363655</v>
+        <v>128.149857</v>
       </c>
       <c r="N25">
-        <v>167.072731</v>
+        <v>256.299714</v>
       </c>
       <c r="O25">
-        <v>0.5772095936007515</v>
+        <v>0.6841520677789258</v>
       </c>
       <c r="P25">
-        <v>0.4764833079049545</v>
+        <v>0.5908436890523912</v>
       </c>
       <c r="Q25">
-        <v>244.1737333564317</v>
+        <v>639.475817154372</v>
       </c>
       <c r="R25">
-        <v>1465.04240013859</v>
+        <v>3836.854902926232</v>
       </c>
       <c r="S25">
-        <v>0.02913265003499333</v>
+        <v>0.05670136775558308</v>
       </c>
       <c r="T25">
-        <v>0.02631123826061518</v>
+        <v>0.05114420713061213</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.922963333333333</v>
+        <v>4.990062666666667</v>
       </c>
       <c r="H26">
-        <v>8.768889999999999</v>
+        <v>14.970188</v>
       </c>
       <c r="I26">
-        <v>0.05047152777426636</v>
+        <v>0.08287831086977776</v>
       </c>
       <c r="J26">
-        <v>0.05521964321542102</v>
+        <v>0.08656131575618316</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.484752333333333</v>
+        <v>8.705771666666665</v>
       </c>
       <c r="N26">
-        <v>16.454257</v>
+        <v>26.117315</v>
       </c>
       <c r="O26">
-        <v>0.03789788610475406</v>
+        <v>0.04647739628270661</v>
       </c>
       <c r="P26">
-        <v>0.04692674117165327</v>
+        <v>0.06020783442131875</v>
       </c>
       <c r="Q26">
-        <v>16.03172996274778</v>
+        <v>43.44234617835777</v>
       </c>
       <c r="R26">
-        <v>144.28556966473</v>
+        <v>390.98111560522</v>
       </c>
       <c r="S26">
-        <v>0.001912764211122078</v>
+        <v>0.003851968097536012</v>
       </c>
       <c r="T26">
-        <v>0.002591277904761102</v>
+        <v>0.005211669366339765</v>
       </c>
     </row>
   </sheetData>
